--- a/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\storage-al.slu.se\home$\dlal0002\Desktop\uppdatering2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\storage-al.slu.se\home$\dlal0002\My Documents\GitHub\oa-tskr\Bibsam_tidskriftslistor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="165">
   <si>
     <t>Imprint</t>
   </si>
@@ -344,18 +344,6 @@
     <t>https://bmjpaedsopen.bmj.com/</t>
   </si>
   <si>
-    <t>ESMO Open</t>
-  </si>
-  <si>
-    <t>https://esmoopen.bmj.com/</t>
-  </si>
-  <si>
-    <t>Family Medicine and Community Health</t>
-  </si>
-  <si>
-    <t>https://fmch.bmj.com/</t>
-  </si>
-  <si>
     <t>General Psychiatry</t>
   </si>
   <si>
@@ -392,12 +380,6 @@
     <t>https://tsaco.bmj.com/</t>
   </si>
   <si>
-    <t>Vet Record Open</t>
-  </si>
-  <si>
-    <t>https://vetrecordopen.bmj.com/</t>
-  </si>
-  <si>
     <t>World Journal of Pediatric Surgery</t>
   </si>
   <si>
@@ -476,9 +458,6 @@
     <t>2397-5776</t>
   </si>
   <si>
-    <t>2399-2050</t>
-  </si>
-  <si>
     <t>2053-8790</t>
   </si>
   <si>
@@ -494,12 +473,6 @@
     <t>2517-729X</t>
   </si>
   <si>
-    <t>2059-7029</t>
-  </si>
-  <si>
-    <t>2009-8774</t>
-  </si>
-  <si>
     <t>1468-2079</t>
   </si>
   <si>
@@ -528,6 +501,24 @@
   </si>
   <si>
     <t>2041-4145</t>
+  </si>
+  <si>
+    <t>BMJ Medicine</t>
+  </si>
+  <si>
+    <t>https://bmjmedicine.bmj.com/</t>
+  </si>
+  <si>
+    <t>2754-0413</t>
+  </si>
+  <si>
+    <t>BMJ Neurology Open</t>
+  </si>
+  <si>
+    <t>https://neurologyopen.bmj.com/</t>
+  </si>
+  <si>
+    <t>2632-6140</t>
   </si>
 </sst>
 </file>
@@ -569,60 +560,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -636,10 +574,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G54" totalsRowShown="0">
-  <autoFilter ref="A1:G54"/>
-  <sortState ref="A2:G54">
-    <sortCondition ref="D1:D54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G52" totalsRowShown="0">
+  <autoFilter ref="A1:G52"/>
+  <sortState ref="A2:G52">
+    <sortCondition ref="D1:D52"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -917,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -966,13 +904,13 @@
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
         <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -986,13 +924,13 @@
         <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
         <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,7 +950,7 @@
         <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,7 +970,7 @@
         <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,19 +978,19 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
         <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
         <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1060,7 +998,7 @@
         <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
@@ -1069,10 +1007,10 @@
         <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1080,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
         <v>84</v>
@@ -1089,10 +1027,10 @@
         <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,19 +1038,19 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1120,19 +1058,19 @@
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1140,19 +1078,19 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1160,19 +1098,19 @@
         <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1180,19 +1118,19 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1200,19 +1138,19 @@
         <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1220,19 +1158,19 @@
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1240,19 +1178,19 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1260,19 +1198,19 @@
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1280,19 +1218,19 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1300,19 +1238,19 @@
         <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1320,19 +1258,19 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1340,22 +1278,19 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
         <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1363,19 +1298,19 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1383,19 +1318,22 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
         <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1403,19 +1341,19 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1423,19 +1361,19 @@
         <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
         <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1443,19 +1381,19 @@
         <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
         <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1463,19 +1401,19 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1483,19 +1421,19 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F28" t="s">
         <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1503,19 +1441,19 @@
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1535,7 +1473,7 @@
         <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1555,7 +1493,7 @@
         <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1575,7 +1513,7 @@
         <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1595,7 +1533,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1606,16 +1544,16 @@
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E34" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
         <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1635,7 +1573,7 @@
         <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1655,7 +1593,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1666,16 +1604,16 @@
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
         <v>81</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1689,13 +1627,13 @@
         <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s">
         <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1703,19 +1641,19 @@
         <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1735,7 +1673,7 @@
         <v>81</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1755,7 +1693,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1763,19 +1701,19 @@
         <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G42" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1795,7 +1733,7 @@
         <v>81</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1815,7 +1753,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1823,19 +1761,19 @@
         <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F45" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1855,7 +1793,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1863,19 +1801,19 @@
         <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1892,10 +1830,10 @@
         <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G48" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1915,7 +1853,7 @@
         <v>81</v>
       </c>
       <c r="G49" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1935,7 +1873,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1943,19 +1881,19 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1963,39 +1901,19 @@
         <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" t="s">
-        <v>125</v>
-      </c>
-      <c r="F53" t="s">
-        <v>131</v>
-      </c>
-      <c r="G53" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="166">
   <si>
     <t>Imprint</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>2632-6140</t>
+  </si>
+  <si>
+    <t>1472-3263</t>
   </si>
 </sst>
 </file>
@@ -857,7 +860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1781,7 +1786,7 @@
         <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
         <v>63</v>

--- a/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="169">
   <si>
     <t>Imprint</t>
   </si>
@@ -522,6 +522,15 @@
   </si>
   <si>
     <t>1472-3263</t>
+  </si>
+  <si>
+    <t>https://jitc.bmj.com/</t>
+  </si>
+  <si>
+    <t>Journal for ImmunoTherapy of Cancer</t>
+  </si>
+  <si>
+    <t>2051-1426</t>
   </si>
 </sst>
 </file>
@@ -577,10 +586,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G52" totalsRowShown="0">
-  <autoFilter ref="A1:G52"/>
-  <sortState ref="A2:G52">
-    <sortCondition ref="D1:D52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G53" totalsRowShown="0">
+  <autoFilter ref="A1:G53"/>
+  <sortState ref="A2:G53">
+    <sortCondition ref="D1:D53"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -858,11 +867,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1526,16 +1533,16 @@
         <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G33" t="s">
         <v>127</v>
@@ -1546,13 +1553,13 @@
         <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
         <v>81</v>
@@ -1566,13 +1573,13 @@
         <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="F35" t="s">
         <v>81</v>
@@ -1586,19 +1593,19 @@
         <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
         <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1606,13 +1613,13 @@
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="F37" t="s">
         <v>81</v>
@@ -1626,13 +1633,13 @@
         <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
         <v>81</v>
@@ -1646,19 +1653,19 @@
         <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1666,16 +1673,16 @@
         <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G40" t="s">
         <v>127</v>
@@ -1686,13 +1693,13 @@
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
         <v>81</v>
@@ -1706,16 +1713,16 @@
         <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s">
         <v>127</v>
@@ -1726,16 +1733,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G43" t="s">
         <v>127</v>
@@ -1746,19 +1753,19 @@
         <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s">
         <v>81</v>
       </c>
       <c r="G44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1766,19 +1773,19 @@
         <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1786,16 +1793,16 @@
         <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G46" t="s">
         <v>127</v>
@@ -1806,16 +1813,16 @@
         <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s">
         <v>127</v>
@@ -1826,13 +1833,13 @@
         <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="F48" t="s">
         <v>125</v>
@@ -1846,19 +1853,19 @@
         <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1866,19 +1873,19 @@
         <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F50" t="s">
         <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1886,16 +1893,16 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s">
         <v>127</v>
@@ -1906,18 +1913,38 @@
         <v>71</v>
       </c>
       <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
         <v>142</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>118</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>119</v>
       </c>
-      <c r="F52" t="s">
-        <v>125</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="F53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" t="s">
         <v>126</v>
       </c>
     </row>

--- a/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="199">
   <si>
     <t>Imprint</t>
   </si>
@@ -531,6 +531,96 @@
   </si>
   <si>
     <t>2051-1426</t>
+  </si>
+  <si>
+    <t>BMJ Innovations</t>
+  </si>
+  <si>
+    <t>BMJ Leader</t>
+  </si>
+  <si>
+    <t>BMJ Military Health</t>
+  </si>
+  <si>
+    <t>BMJ Sexual &amp; Reproductive Health</t>
+  </si>
+  <si>
+    <t>BMJ Supportive &amp; Palliative Care</t>
+  </si>
+  <si>
+    <t>European Journal of Hospital Pharmacy</t>
+  </si>
+  <si>
+    <t>International Journal of Gynecological Cancer</t>
+  </si>
+  <si>
+    <t>Regional Anesthesia &amp; Pain Medicine</t>
+  </si>
+  <si>
+    <t>BMJ Oncology</t>
+  </si>
+  <si>
+    <t>Integrated Healthcare Journal</t>
+  </si>
+  <si>
+    <t>2055-642X </t>
+  </si>
+  <si>
+    <t>https://innovations.bmj.com/</t>
+  </si>
+  <si>
+    <t>2398-631X</t>
+  </si>
+  <si>
+    <t>https://bmjleader.bmj.com/</t>
+  </si>
+  <si>
+    <t>2633-3775 </t>
+  </si>
+  <si>
+    <t>https://militaryhealth.bmj.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2515-2009 </t>
+  </si>
+  <si>
+    <t>https://srh.bmj.com/</t>
+  </si>
+  <si>
+    <t>2045-4368 </t>
+  </si>
+  <si>
+    <t>https://spcare.bmj.com/</t>
+  </si>
+  <si>
+    <t>2047-9964 </t>
+  </si>
+  <si>
+    <t>https://ejhp.bmj.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1525-1438 </t>
+  </si>
+  <si>
+    <t>https://ijgc.bmj.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1532-8651 </t>
+  </si>
+  <si>
+    <t>https://rapm.bmj.com/</t>
+  </si>
+  <si>
+    <t>2752-7948</t>
+  </si>
+  <si>
+    <t>https://bmjoncology.bmj.com/</t>
+  </si>
+  <si>
+    <t>2399-5351</t>
+  </si>
+  <si>
+    <t>https://ihj.bmj.com/</t>
   </si>
 </sst>
 </file>
@@ -572,7 +662,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -586,10 +687,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G53" totalsRowShown="0">
-  <autoFilter ref="A1:G53"/>
-  <sortState ref="A2:G53">
-    <sortCondition ref="D1:D53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G63" totalsRowShown="0">
+  <autoFilter ref="A1:G63"/>
+  <sortState ref="A2:G63">
+    <sortCondition ref="D1:D63"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -867,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1050,16 +1151,16 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
         <v>127</v>
@@ -1070,16 +1171,16 @@
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
         <v>127</v>
@@ -1090,13 +1191,13 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -1110,16 +1211,16 @@
         <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
         <v>127</v>
@@ -1130,13 +1231,13 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
         <v>125</v>
@@ -1150,13 +1251,13 @@
         <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
         <v>125</v>
@@ -1170,13 +1271,13 @@
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="F15" t="s">
         <v>125</v>
@@ -1190,13 +1291,13 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
         <v>125</v>
@@ -1210,13 +1311,13 @@
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -1230,13 +1331,13 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
         <v>125</v>
@@ -1250,13 +1351,13 @@
         <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
         <v>125</v>
@@ -1270,13 +1371,13 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
         <v>125</v>
@@ -1290,16 +1391,16 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
         <v>127</v>
@@ -1310,13 +1411,13 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -1330,22 +1431,19 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1353,16 +1451,16 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
         <v>127</v>
@@ -1373,13 +1471,13 @@
         <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
         <v>81</v>
@@ -1393,13 +1491,13 @@
         <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
         <v>81</v>
@@ -1413,13 +1511,13 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="F27" t="s">
         <v>81</v>
@@ -1433,19 +1531,19 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1453,19 +1551,22 @@
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1473,19 +1574,19 @@
         <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
         <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1493,19 +1594,19 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
         <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1513,19 +1614,19 @@
         <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="F32" t="s">
         <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1533,16 +1634,16 @@
         <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
         <v>127</v>
@@ -1553,13 +1654,13 @@
         <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
         <v>81</v>
@@ -1573,19 +1674,19 @@
         <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F35" t="s">
         <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1593,16 +1694,16 @@
         <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G36" t="s">
         <v>127</v>
@@ -1613,13 +1714,13 @@
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
         <v>81</v>
@@ -1633,13 +1734,13 @@
         <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
         <v>81</v>
@@ -1653,13 +1754,13 @@
         <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
         <v>81</v>
@@ -1673,13 +1774,13 @@
         <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="F40" t="s">
         <v>125</v>
@@ -1693,13 +1794,13 @@
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F41" t="s">
         <v>81</v>
@@ -1713,16 +1814,16 @@
         <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G42" t="s">
         <v>127</v>
@@ -1733,16 +1834,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s">
         <v>127</v>
@@ -1753,13 +1854,13 @@
         <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
         <v>81</v>
@@ -1773,19 +1874,19 @@
         <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
         <v>81</v>
       </c>
       <c r="G45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1793,19 +1894,19 @@
         <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="F46" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1813,19 +1914,19 @@
         <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="F47" t="s">
         <v>81</v>
       </c>
       <c r="G47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1833,19 +1934,19 @@
         <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1853,13 +1954,13 @@
         <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="F49" t="s">
         <v>125</v>
@@ -1873,19 +1974,19 @@
         <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F50" t="s">
         <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1893,13 +1994,13 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F51" t="s">
         <v>81</v>
@@ -1913,13 +2014,13 @@
         <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F52" t="s">
         <v>125</v>
@@ -1933,22 +2034,225 @@
         <v>71</v>
       </c>
       <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
         <v>142</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D63" t="s">
         <v>118</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E63" t="s">
         <v>119</v>
       </c>
-      <c r="F53" t="s">
-        <v>125</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F63" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\storage-al.slu.se\home$\dlal0002\My Documents\GitHub\oa-tskr\Bibsam_tidskriftslistor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_DBF5044DF6331EE0CE2416F094DF557850B45D8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{179B9D26-BD3C-4C25-B845-B28945D8092C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="187">
   <si>
     <t>Imprint</t>
   </si>
@@ -71,9 +72,6 @@
     <t>1472-0213</t>
   </si>
   <si>
-    <t>1468-960X</t>
-  </si>
-  <si>
     <t>1468-9618</t>
   </si>
   <si>
@@ -113,12 +111,6 @@
     <t>1470-7926</t>
   </si>
   <si>
-    <t>1469-0756</t>
-  </si>
-  <si>
-    <t>1475-3901</t>
-  </si>
-  <si>
     <t>1468-3296</t>
   </si>
   <si>
@@ -149,12 +141,6 @@
     <t>http://emj.bmj.com</t>
   </si>
   <si>
-    <t>Evidence-Based Mental Health</t>
-  </si>
-  <si>
-    <t>http://ebmh.bmj.com</t>
-  </si>
-  <si>
     <t>Evidence-Based Nursing</t>
   </si>
   <si>
@@ -209,12 +195,6 @@
     <t>http://oem.bmj.com</t>
   </si>
   <si>
-    <t>Postgraduate Medical Journal</t>
-  </si>
-  <si>
-    <t>http://pmj.bmj.com</t>
-  </si>
-  <si>
     <t>Sexually Transmitted Infections</t>
   </si>
   <si>
@@ -326,12 +306,6 @@
     <t>https://bmjopenrespres.bmj.com/</t>
   </si>
   <si>
-    <t>BMJ Open Science</t>
-  </si>
-  <si>
-    <t>https://openscience.bmj.com/</t>
-  </si>
-  <si>
     <t>BMJ Open Sport &amp; Exercise Medicine</t>
   </si>
   <si>
@@ -344,12 +318,6 @@
     <t>https://bmjpaedsopen.bmj.com/</t>
   </si>
   <si>
-    <t>General Psychiatry</t>
-  </si>
-  <si>
-    <t>https://gpsych.bmj.com/</t>
-  </si>
-  <si>
     <t>Lupus Science &amp; Medicine</t>
   </si>
   <si>
@@ -380,12 +348,6 @@
     <t>https://tsaco.bmj.com/</t>
   </si>
   <si>
-    <t>World Journal of Pediatric Surgery</t>
-  </si>
-  <si>
-    <t>https://wjps.bmj.com/</t>
-  </si>
-  <si>
     <t>https://ebm.bmj.com/</t>
   </si>
   <si>
@@ -440,9 +402,6 @@
     <t>2052-4439</t>
   </si>
   <si>
-    <t>2398-8703</t>
-  </si>
-  <si>
     <t>2055-7647</t>
   </si>
   <si>
@@ -452,9 +411,6 @@
     <t>2631-4940</t>
   </si>
   <si>
-    <t>2516-5410</t>
-  </si>
-  <si>
     <t>2397-5776</t>
   </si>
   <si>
@@ -470,9 +426,6 @@
     <t>2059-8696</t>
   </si>
   <si>
-    <t>2517-729X</t>
-  </si>
-  <si>
     <t>1468-2079</t>
   </si>
   <si>
@@ -560,9 +513,6 @@
     <t>BMJ Oncology</t>
   </si>
   <si>
-    <t>Integrated Healthcare Journal</t>
-  </si>
-  <si>
     <t>2055-642X </t>
   </si>
   <si>
@@ -581,33 +531,18 @@
     <t>https://militaryhealth.bmj.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">2515-2009 </t>
-  </si>
-  <si>
     <t>https://srh.bmj.com/</t>
   </si>
   <si>
-    <t>2045-4368 </t>
-  </si>
-  <si>
     <t>https://spcare.bmj.com/</t>
   </si>
   <si>
-    <t>2047-9964 </t>
-  </si>
-  <si>
     <t>https://ejhp.bmj.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">1525-1438 </t>
-  </si>
-  <si>
     <t>https://ijgc.bmj.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">1532-8651 </t>
-  </si>
-  <si>
     <t>https://rapm.bmj.com/</t>
   </si>
   <si>
@@ -617,16 +552,46 @@
     <t>https://bmjoncology.bmj.com/</t>
   </si>
   <si>
-    <t>2399-5351</t>
-  </si>
-  <si>
-    <t>https://ihj.bmj.com/</t>
+    <t>2044-5423</t>
+  </si>
+  <si>
+    <t>2515-2009</t>
+  </si>
+  <si>
+    <t>2045-4368</t>
+  </si>
+  <si>
+    <t>2047-9964</t>
+  </si>
+  <si>
+    <t>1525-1438</t>
+  </si>
+  <si>
+    <t>1532-8651</t>
+  </si>
+  <si>
+    <t>2755-9734</t>
+  </si>
+  <si>
+    <t>BMJ Mental Health</t>
+  </si>
+  <si>
+    <t>https://mentalhealth.bmj.com</t>
+  </si>
+  <si>
+    <t>2753-4294</t>
+  </si>
+  <si>
+    <t>BMJ Public Health</t>
+  </si>
+  <si>
+    <t>https://bmjpublichealth.bmj.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,18 +627,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -687,19 +641,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G63" totalsRowShown="0">
-  <autoFilter ref="A1:G63"/>
-  <sortState ref="A2:G63">
-    <sortCondition ref="D1:D63"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE3F7C2C-53E0-44AC-9454-970B7AEB95A5}" name="Table2" displayName="Table2" ref="A1:G59" totalsRowShown="0">
+  <autoFilter ref="A1:G59" xr:uid="{CE3F7C2C-53E0-44AC-9454-970B7AEB95A5}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{593B4BED-954E-42A4-94D9-A846FC8FBED3}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{07482773-D0BC-42AA-A4C3-B05344BB087F}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{4CCB9709-B342-4013-AB7D-3E26FC806299}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{E663A579-9687-46F1-95E4-D8638896BED6}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{B793A532-63D9-450C-9E0E-2E38A4F12C62}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{5F8D35A8-1D89-4640-BA7A-A1FE4D6DDFD7}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{0CEE4B53-58A2-485B-9F33-DBA7EB0F7AF9}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -967,18 +918,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46D1DCB-5430-419D-A3F9-3112ADFEF8E3}">
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
@@ -1008,1251 +961,1168 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
         <v>71</v>
       </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G45" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G48" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="F52" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G53" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G54" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G57" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="F58" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G58" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" t="s">
-        <v>70</v>
-      </c>
-      <c r="F61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" t="s">
-        <v>118</v>
-      </c>
-      <c r="E63" t="s">
-        <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>125</v>
-      </c>
-      <c r="G63" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_DBF5044DF6331EE0CE2416F094DF557850B45D8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{179B9D26-BD3C-4C25-B845-B28945D8092C}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_DBF5044DF6331EE0CE2416F094DF557850B45D8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{377ADFF1-3448-40FB-AE3E-26A74FC2C56B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="193">
   <si>
     <t>Imprint</t>
   </si>
@@ -51,9 +51,6 @@
     <t>1756-1833</t>
   </si>
   <si>
-    <t>1468-2060</t>
-  </si>
-  <si>
     <t>1468-2044</t>
   </si>
   <si>
@@ -120,12 +117,6 @@
     <t>www.thebmj.com</t>
   </si>
   <si>
-    <t>Annals of the Rheumatic Diseases</t>
-  </si>
-  <si>
-    <t>http://ard.bmj.com</t>
-  </si>
-  <si>
     <t>Archives of Disease in Childhood</t>
   </si>
   <si>
@@ -234,12 +225,6 @@
     <t>Practical Neurology</t>
   </si>
   <si>
-    <t>ADC: Education &amp; Practice</t>
-  </si>
-  <si>
-    <t>ADC: Fetal &amp; Neonatal</t>
-  </si>
-  <si>
     <t>BMJ Evidence-Based Medicine</t>
   </si>
   <si>
@@ -504,9 +489,6 @@
     <t>European Journal of Hospital Pharmacy</t>
   </si>
   <si>
-    <t>International Journal of Gynecological Cancer</t>
-  </si>
-  <si>
     <t>Regional Anesthesia &amp; Pain Medicine</t>
   </si>
   <si>
@@ -540,9 +522,6 @@
     <t>https://ejhp.bmj.com/</t>
   </si>
   <si>
-    <t>https://ijgc.bmj.com/</t>
-  </si>
-  <si>
     <t>https://rapm.bmj.com/</t>
   </si>
   <si>
@@ -564,9 +543,6 @@
     <t>2047-9964</t>
   </si>
   <si>
-    <t>1525-1438</t>
-  </si>
-  <si>
     <t>1532-8651</t>
   </si>
   <si>
@@ -586,6 +562,48 @@
   </si>
   <si>
     <t>https://bmjpublichealth.bmj.com/</t>
+  </si>
+  <si>
+    <t>Archives of Disease in Childhood: Education &amp; Practice</t>
+  </si>
+  <si>
+    <t>Archives of Disease in Childhood: Fetal &amp; Neonatal</t>
+  </si>
+  <si>
+    <t>3050-2551</t>
+  </si>
+  <si>
+    <t>BMJ Connections Clinical Genetics and Genomics</t>
+  </si>
+  <si>
+    <t>https://connectionscgg.bmj.com</t>
+  </si>
+  <si>
+    <t>3049-5784</t>
+  </si>
+  <si>
+    <t>BMJ Connections Oncology</t>
+  </si>
+  <si>
+    <t>https://connectionsoncology.bmj.com</t>
+  </si>
+  <si>
+    <t>2515-3927</t>
+  </si>
+  <si>
+    <t>Considerations in Medicine</t>
+  </si>
+  <si>
+    <t>https://considerations.bmj.com</t>
+  </si>
+  <si>
+    <t>1755-5248</t>
+  </si>
+  <si>
+    <t>Drug and Therapeutics Bulletin</t>
+  </si>
+  <si>
+    <t>https://dtb.bmj.com</t>
   </si>
 </sst>
 </file>
@@ -641,16 +659,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE3F7C2C-53E0-44AC-9454-970B7AEB95A5}" name="Table2" displayName="Table2" ref="A1:G59" totalsRowShown="0">
-  <autoFilter ref="A1:G59" xr:uid="{CE3F7C2C-53E0-44AC-9454-970B7AEB95A5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC22B705-AC7C-40BC-8435-CA1F429C4808}" name="Table1" displayName="Table1" ref="A1:G61" totalsRowShown="0">
+  <autoFilter ref="A1:G61" xr:uid="{CC22B705-AC7C-40BC-8435-CA1F429C4808}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{593B4BED-954E-42A4-94D9-A846FC8FBED3}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{07482773-D0BC-42AA-A4C3-B05344BB087F}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{4CCB9709-B342-4013-AB7D-3E26FC806299}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{E663A579-9687-46F1-95E4-D8638896BED6}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{B793A532-63D9-450C-9E0E-2E38A4F12C62}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{5F8D35A8-1D89-4640-BA7A-A1FE4D6DDFD7}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{0CEE4B53-58A2-485B-9F33-DBA7EB0F7AF9}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{12B02975-ED55-4E2C-A0DC-05E25DA91B1A}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{916506D8-61A3-4754-B028-B55EEC8CEB62}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{DC5761CB-5DD6-471D-BC4C-E6349E27D7E0}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{6B4BDCF7-EA44-4DE2-885B-9D88F00A9F00}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{9A04EE1C-E8E2-484E-B408-C122859BE177}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{FEFBD4DC-8E9D-40E7-A525-127249765BF6}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{AB61817C-3702-4113-AA53-F8FAC3372AAE}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -918,11 +936,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46D1DCB-5430-419D-A3F9-3112ADFEF8E3}">
-  <dimension ref="A1:G59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEAECD5-F60A-4D1F-8086-508739D77BB7}">
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,1165 +979,1205 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" t="s">
         <v>177</v>
       </c>
-      <c r="D26" t="s">
-        <v>157</v>
-      </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G47" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G49" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
         <v>64</v>
       </c>
-      <c r="B50" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" t="s">
-        <v>160</v>
-      </c>
       <c r="E50" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G51" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G52" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G54" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G55" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G56" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G57" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G58" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G59" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_bmj.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_DBF5044DF6331EE0CE2416F094DF557850B45D8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{377ADFF1-3448-40FB-AE3E-26A74FC2C56B}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_DBF5044DF6331EE0CE2416F094DF557850B45D8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A407092-921E-4037-8E6D-5BC54071755C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="196">
   <si>
     <t>Imprint</t>
   </si>
@@ -604,6 +604,15 @@
   </si>
   <si>
     <t>https://dtb.bmj.com</t>
+  </si>
+  <si>
+    <t>3049-575X</t>
+  </si>
+  <si>
+    <t>BMJ Digital Health &amp; AI</t>
+  </si>
+  <si>
+    <t>https://bmjdigitalhealth.bmj.com/</t>
   </si>
 </sst>
 </file>
@@ -659,8 +668,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC22B705-AC7C-40BC-8435-CA1F429C4808}" name="Table1" displayName="Table1" ref="A1:G61" totalsRowShown="0">
-  <autoFilter ref="A1:G61" xr:uid="{CC22B705-AC7C-40BC-8435-CA1F429C4808}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC22B705-AC7C-40BC-8435-CA1F429C4808}" name="Table1" displayName="Table1" ref="A1:G62" totalsRowShown="0">
+  <autoFilter ref="A1:G62" xr:uid="{CC22B705-AC7C-40BC-8435-CA1F429C4808}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G62">
+    <sortCondition ref="D1:D62"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{12B02975-ED55-4E2C-A0DC-05E25DA91B1A}" name="Imprint"/>
     <tableColumn id="2" xr3:uid="{916506D8-61A3-4754-B028-B55EEC8CEB62}" name="ISSN Electronic"/>
@@ -937,7 +949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEAECD5-F60A-4D1F-8086-508739D77BB7}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1082,16 +1094,16 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s">
         <v>109</v>
@@ -1102,16 +1114,16 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
         <v>109</v>
@@ -1122,13 +1134,13 @@
         <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
         <v>107</v>
@@ -1142,16 +1154,16 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>109</v>
@@ -1162,13 +1174,13 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -1182,16 +1194,16 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
         <v>109</v>
@@ -1202,13 +1214,13 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
         <v>107</v>
@@ -1222,16 +1234,16 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
         <v>109</v>
@@ -1242,16 +1254,16 @@
         <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
         <v>109</v>
@@ -1262,13 +1274,13 @@
         <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -1282,13 +1294,13 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
         <v>107</v>
@@ -1302,13 +1314,13 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -1322,13 +1334,13 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
         <v>107</v>
@@ -1342,13 +1354,13 @@
         <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
         <v>107</v>
@@ -1362,13 +1374,13 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -1382,13 +1394,13 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
         <v>107</v>
@@ -1402,13 +1414,13 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
         <v>107</v>
@@ -1422,13 +1434,13 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
         <v>107</v>
@@ -1442,13 +1454,13 @@
         <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
         <v>107</v>
@@ -1462,13 +1474,13 @@
         <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
         <v>107</v>
@@ -1482,16 +1494,16 @@
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
         <v>109</v>
@@ -1502,13 +1514,13 @@
         <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
         <v>69</v>
@@ -1522,13 +1534,13 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F29" t="s">
         <v>69</v>
@@ -1542,16 +1554,16 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F30" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
         <v>109</v>
@@ -1562,22 +1574,19 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1585,19 +1594,22 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
         <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1605,13 +1617,13 @@
         <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
         <v>69</v>
@@ -1625,13 +1637,13 @@
         <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F34" t="s">
         <v>69</v>
@@ -1645,13 +1657,13 @@
         <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="F35" t="s">
         <v>69</v>
@@ -1665,13 +1677,13 @@
         <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
         <v>69</v>
@@ -1685,13 +1697,13 @@
         <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="F37" t="s">
         <v>69</v>
@@ -1705,19 +1717,19 @@
         <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
         <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1725,13 +1737,13 @@
         <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="F39" t="s">
         <v>69</v>
@@ -1745,13 +1757,13 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
         <v>69</v>
@@ -1765,19 +1777,19 @@
         <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
         <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1785,16 +1797,16 @@
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="G42" t="s">
         <v>109</v>
@@ -1805,16 +1817,16 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="G43" t="s">
         <v>109</v>
@@ -1825,13 +1837,13 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
         <v>69</v>
@@ -1845,13 +1857,13 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F45" t="s">
         <v>69</v>
@@ -1865,19 +1877,19 @@
         <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
         <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1885,13 +1897,13 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
         <v>69</v>
@@ -1905,13 +1917,13 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="F48" t="s">
         <v>69</v>
@@ -1925,19 +1937,19 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1945,16 +1957,16 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="G50" t="s">
         <v>109</v>
@@ -1965,13 +1977,13 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
         <v>69</v>
@@ -1985,16 +1997,16 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="G52" t="s">
         <v>109</v>
@@ -2005,19 +2017,19 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="G53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2025,19 +2037,19 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
         <v>69</v>
       </c>
       <c r="G54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2045,16 +2057,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
         <v>109</v>
@@ -2065,16 +2077,16 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="G56" t="s">
         <v>109</v>
@@ -2085,16 +2097,16 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="F57" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="G57" t="s">
         <v>109</v>
@@ -2105,13 +2117,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="F58" t="s">
         <v>107</v>
@@ -2125,19 +2137,19 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="G59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2145,19 +2157,19 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F60" t="s">
         <v>69</v>
       </c>
       <c r="G60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2165,18 +2177,38 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>123</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>100</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>101</v>
       </c>
-      <c r="F61" t="s">
-        <v>107</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F62" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" t="s">
         <v>109</v>
       </c>
     </row>
